--- a/src/main/resources/20-Jan_to_2-Feb_menu.xlsx
+++ b/src/main/resources/20-Jan_to_2-Feb_menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyakaranamsowmya/Desktop/messmanagement/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C961998-7B2E-CC40-B900-418F38571FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD192AC-8C4C-A84F-AE9C-8BB0581C4E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>45318</v>
+        <v>45684</v>
       </c>
       <c r="B3" s="2">
         <v>45685</v>
